--- a/clustering_analysis/clustering_results.xlsx
+++ b/clustering_analysis/clustering_results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzarsky\Documents\DIPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzarsky\Documents\DIPL\evaluation-of-comprehensibility\clustering_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>Category</t>
   </si>
@@ -156,12 +156,18 @@
   <si>
     <t>Average Silhouette score</t>
   </si>
+  <si>
+    <t>Purity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominant </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +180,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -194,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -442,27 +456,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,15 +498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -492,9 +510,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,7 +1322,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2430,7 +2481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -2446,81 +2497,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="16" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="16" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="1" t="s">
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="P2" t="s">
@@ -2540,1370 +2591,1370 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>AVERAGE(O3:T3)</f>
+      <c r="A3" s="4">
+        <f t="shared" ref="A3:A22" si="0">AVERAGE(O3:T3)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.24</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1.85</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>88</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>0.39</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>0.47</v>
       </c>
       <c r="O3">
-        <f>RANK(I3,I$3:I$22)</f>
+        <f t="shared" ref="O3:O22" si="1">RANK(I3,I$3:I$22)</f>
         <v>1</v>
       </c>
       <c r="P3">
-        <f>RANK(J3,J$3:J$22,1)</f>
+        <f t="shared" ref="P3:P22" si="2">RANK(J3,J$3:J$22,1)</f>
         <v>9</v>
       </c>
       <c r="Q3">
-        <f>RANK(K3,K$3:K$22)</f>
+        <f t="shared" ref="Q3:Q22" si="3">RANK(K3,K$3:K$22)</f>
         <v>7</v>
       </c>
       <c r="R3">
-        <f>RANK(L3,L$3:L$22)</f>
+        <f t="shared" ref="R3:R22" si="4">RANK(L3,L$3:L$22)</f>
         <v>1</v>
       </c>
       <c r="S3">
-        <f>RANK(M3,M$3:M$22)</f>
+        <f t="shared" ref="S3:S22" si="5">RANK(M3,M$3:M$22)</f>
         <v>1</v>
       </c>
       <c r="T3">
-        <f>RANK(N3,N$3:N$22)</f>
+        <f t="shared" ref="T3:T22" si="6">RANK(N3,N$3:N$22)</f>
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f>AVERAGE(O4:T4)</f>
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.24</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1.89</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>88.4</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>0.26</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.38</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <v>0.46</v>
       </c>
       <c r="O4">
-        <f>RANK(I4,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P4">
-        <f>RANK(J4,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="Q4">
-        <f>RANK(K4,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="R4">
-        <f>RANK(L4,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S4">
-        <f>RANK(M4,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T4">
-        <f>RANK(N4,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f>AVERAGE(O5:T5)</f>
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
         <v>6.333333333333333</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.24</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>1.92</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>88.3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.26</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.38</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <v>0.45</v>
       </c>
       <c r="O5">
-        <f>RANK(I5,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P5">
-        <f>RANK(J5,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="Q5">
-        <f>RANK(K5,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="R5">
-        <f>RANK(L5,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="S5">
-        <f>RANK(M5,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="T5">
-        <f>RANK(N5,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>AVERAGE(O6:T6)</f>
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.24</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>1.91</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>97.1</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0.23</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.33</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <v>0.44</v>
       </c>
       <c r="O6">
-        <f>RANK(I6,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P6">
-        <f>RANK(J6,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="Q6">
-        <f>RANK(K6,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R6">
-        <f>RANK(L6,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S6">
-        <f>RANK(M6,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T6">
-        <f>RANK(N6,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f>AVERAGE(O7:T7)</f>
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
         <v>6.666666666666667</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.24</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>1.91</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>97.1</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0.23</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0.33</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <v>0.44</v>
       </c>
       <c r="O7">
-        <f>RANK(I7,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>RANK(J7,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="Q7">
-        <f>RANK(K7,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>RANK(L7,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S7">
-        <f>RANK(M7,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T7">
-        <f>RANK(N7,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f>AVERAGE(O8:T8)</f>
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.23</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>94.1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>0.27</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.36</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <v>0.47</v>
       </c>
       <c r="O8">
-        <f>RANK(I8,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="P8">
-        <f>RANK(J8,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="Q8">
-        <f>RANK(K8,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="R8">
-        <f>RANK(L8,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="S8">
-        <f>RANK(M8,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="T8">
-        <f>RANK(N8,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f>AVERAGE(O9:T9)</f>
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.22</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>1.96</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>82.4</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0.23</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0.36</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <v>0.43</v>
       </c>
       <c r="O9">
-        <f>RANK(I9,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P9">
-        <f>RANK(J9,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="Q9">
-        <f>RANK(K9,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="R9">
-        <f>RANK(L9,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="S9">
-        <f>RANK(M9,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="T9">
-        <f>RANK(N9,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f>AVERAGE(O10:T10)</f>
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.22</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>1.9</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>90.2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0.18</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>0.33</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="1">
         <v>0.41</v>
       </c>
       <c r="O10">
-        <f>RANK(I10,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="P10">
-        <f>RANK(J10,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="Q10">
-        <f>RANK(K10,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="R10">
-        <f>RANK(L10,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="S10">
-        <f>RANK(M10,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="T10">
-        <f>RANK(N10,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f>AVERAGE(O11:T11)</f>
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.13</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>1.3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>0.08</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0.17</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="O11">
-        <f>RANK(I11,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="P11">
-        <f>RANK(J11,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="Q11">
-        <f>RANK(K11,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R11">
-        <f>RANK(L11,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S11">
-        <f>RANK(M11,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T11">
-        <f>RANK(N11,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f>AVERAGE(O12:T12)</f>
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <v>1.23</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>11.2</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>0.16</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="O12">
-        <f>RANK(I12,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="P12">
-        <f>RANK(J12,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="Q12">
-        <f>RANK(K12,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R12">
-        <f>RANK(L12,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="S12">
-        <f>RANK(M12,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="T12">
-        <f>RANK(N12,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <f>AVERAGE(O13:T13)</f>
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.13</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1.38</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>0.08</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>0.17</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="O13">
-        <f>RANK(I13,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="P13">
-        <f>RANK(J13,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Q13">
-        <f>RANK(K13,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R13">
-        <f>RANK(L13,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="S13">
-        <f>RANK(M13,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="T13">
-        <f>RANK(N13,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f>AVERAGE(O14:T14)</f>
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>6</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.16</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <v>1.99</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>40.6</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>0.1</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <v>0.45</v>
       </c>
       <c r="O14">
-        <f>RANK(I14,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P14">
-        <f>RANK(J14,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="Q14">
-        <f>RANK(K14,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="R14">
-        <f>RANK(L14,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S14">
-        <f>RANK(M14,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T14">
-        <f>RANK(N14,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <f>AVERAGE(O15:T15)</f>
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
         <v>10.666666666666666</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>6</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0.16</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>1.99</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>40.6</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>0.1</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>0.45</v>
       </c>
       <c r="O15">
-        <f>RANK(I15,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="P15">
-        <f>RANK(J15,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="Q15">
-        <f>RANK(K15,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="R15">
-        <f>RANK(L15,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="S15">
-        <f>RANK(M15,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="T15">
-        <f>RANK(N15,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <f>AVERAGE(O16:T16)</f>
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>0.12</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>1.34</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>11.2</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>0.15</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <v>0.56999999999999995</v>
       </c>
       <c r="O16">
-        <f>RANK(I16,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="P16">
-        <f>RANK(J16,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="Q16">
-        <f>RANK(K16,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="R16">
-        <f>RANK(L16,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="S16">
-        <f>RANK(M16,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="T16">
-        <f>RANK(N16,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f>AVERAGE(O17:T17)</f>
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.11</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>1.03</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>0.03</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="O17">
-        <f>RANK(I17,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="P17">
-        <f>RANK(J17,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q17">
-        <f>RANK(K17,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R17">
-        <f>RANK(L17,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="S17">
-        <f>RANK(M17,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T17">
-        <f>RANK(N17,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f>AVERAGE(O18:T18)</f>
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
         <v>12.666666666666666</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>5</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>0.11</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>1.03</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>0.03</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="O18">
-        <f>RANK(I18,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="P18">
-        <f>RANK(J18,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q18">
-        <f>RANK(K18,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="R18">
-        <f>RANK(L18,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="S18">
-        <f>RANK(M18,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T18">
-        <f>RANK(N18,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f>AVERAGE(O19:T19)</f>
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>0.09</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>0.99</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>0.03</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="O19">
-        <f>RANK(I19,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="P19">
-        <f>RANK(J19,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q19">
-        <f>RANK(K19,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R19">
-        <f>RANK(L19,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="S19">
-        <f>RANK(M19,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T19">
-        <f>RANK(N19,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <f>AVERAGE(O20:T20)</f>
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>6</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>0.09</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>0.99</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>0.03</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="O20">
-        <f>RANK(I20,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="P20">
-        <f>RANK(J20,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q20">
-        <f>RANK(K20,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R20">
-        <f>RANK(L20,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="S20">
-        <f>RANK(M20,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="T20">
-        <f>RANK(N20,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f>AVERAGE(O21:T21)</f>
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
         <v>14.166666666666666</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>5</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>0.13</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>35.6</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>0.04</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>0.22</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="1">
         <v>0.43</v>
       </c>
       <c r="O21">
-        <f>RANK(I21,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="P21">
-        <f>RANK(J21,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Q21">
-        <f>RANK(K21,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="R21">
-        <f>RANK(L21,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="S21">
-        <f>RANK(M21,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T21">
-        <f>RANK(N21,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f>AVERAGE(O22:T22)</f>
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
         <v>14.166666666666666</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>0.13</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>35.6</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>0.04</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>0.22</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="1">
         <v>0.43</v>
       </c>
       <c r="O22">
-        <f>RANK(I22,I$3:I$22)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="P22">
-        <f>RANK(J22,J$3:J$22,1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="Q22">
-        <f>RANK(K22,K$3:K$22)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="R22">
-        <f>RANK(L22,L$3:L$22)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="S22">
-        <f>RANK(M22,M$3:M$22)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="T22">
-        <f>RANK(N22,N$3:N$22)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -4009,10 +4060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:J11"/>
+  <dimension ref="B5:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,9 +4071,10 @@
     <col min="3" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="10" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -4047,8 +4099,14 @@
       <c r="J5" t="s">
         <v>36</v>
       </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -4076,8 +4134,16 @@
       <c r="J6">
         <v>5</v>
       </c>
+      <c r="M6">
+        <f>MAX(C6:J6)</f>
+        <v>69</v>
+      </c>
+      <c r="N6" s="26">
+        <f>M6/SUM(C6:J6)</f>
+        <v>0.44230769230769229</v>
+      </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -4105,8 +4171,16 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M11" si="0">MAX(C7:J7)</f>
+        <v>77</v>
+      </c>
+      <c r="N7" s="26">
+        <f t="shared" ref="N7:N11" si="1">M7/SUM(C7:J7)</f>
+        <v>0.61111111111111116</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -4134,8 +4208,16 @@
       <c r="J8">
         <v>1</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N8" s="26">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -4163,8 +4245,16 @@
       <c r="J9">
         <v>0</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="N9" s="26">
+        <f t="shared" si="1"/>
+        <v>0.96511627906976749</v>
+      </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -4192,8 +4282,16 @@
       <c r="J10">
         <v>1</v>
       </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="N10" s="26">
+        <f t="shared" si="1"/>
+        <v>0.92361111111111116</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -4220,6 +4318,14 @@
       </c>
       <c r="J11">
         <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N11" s="26">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4230,10 +4336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:J15"/>
+  <dimension ref="D8:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:J10"/>
+      <selection activeCell="D9" sqref="D9:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4241,68 +4347,88 @@
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="15">
         <v>0</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="15">
         <v>2</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="15">
         <v>3</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="15">
         <v>4</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="29">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="16">
         <v>0.21</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="17">
         <v>0.03</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="17">
         <v>0.06</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="17">
         <v>0.38</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="17">
         <v>0.39</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="17">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.96511627906976749</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="J11" s="27">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="19"/>
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E10:J10">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>